--- a/LP-TSV_template.xlsx
+++ b/LP-TSV_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/_whgazetteer/example_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06660210-1665-394A-B47E-C0320BD3C78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D738547-583F-284A-AB7A-2631470B92EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1600" windowWidth="25660" windowHeight="13380" xr2:uid="{833AB118-89BF-1E43-A475-30C8F9BC31B7}"/>
+    <workbookView xWindow="1360" yWindow="1600" windowWidth="25660" windowHeight="13380" activeTab="1" xr2:uid="{833AB118-89BF-1E43-A475-30C8F9BC31B7}"/>
   </bookViews>
   <sheets>
     <sheet name="example" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>See specification for further details:</t>
   </si>
   <si>
-    <t>https://github.com/LinkedPasts/linked-places/blob/master/tsv_0.2.md</t>
-  </si>
-  <si>
     <t>Contributor's internal unique identifier</t>
   </si>
   <si>
@@ -289,12 +286,15 @@
   <si>
     <t>NB: Excel files saved as UTF-16 and .CSV are incompatible with WHG</t>
   </si>
+  <si>
+    <t>https://github.com/LinkedPasts/linked-places-format/blob/master/tsv_0.4.md</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -336,6 +336,14 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -459,6 +467,7 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -874,7 +883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F305917D-B83E-C447-A263-3DA4B6E6D2C2}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -948,13 +957,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
       </c>
       <c r="D2">
         <v>1480</v>
@@ -963,30 +972,30 @@
         <v>1491</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" t="s">
-        <v>42</v>
-      </c>
       <c r="J2" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3">
         <v>1480</v>
@@ -995,30 +1004,30 @@
         <v>1491</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
       <c r="J3" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
         <v>1480</v>
@@ -1027,19 +1036,19 @@
         <v>1491</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
         <v>52</v>
-      </c>
-      <c r="I4" t="s">
-        <v>53</v>
       </c>
       <c r="J4" s="16">
         <v>300008375</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1047,10 +1056,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
       </c>
       <c r="D5">
         <v>1800</v>
@@ -1059,10 +1068,10 @@
         <v>2000</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" s="19">
         <v>300000390</v>
@@ -1074,7 +1083,7 @@
         <v>-2.5314999999999999</v>
       </c>
       <c r="P5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1082,10 +1091,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>1800</v>
@@ -1094,10 +1103,10 @@
         <v>2000</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" s="19">
         <v>300000390</v>
@@ -1108,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>1800</v>
@@ -1120,10 +1129,10 @@
         <v>2000</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" s="19">
         <v>300000390</v>
@@ -1134,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>1800</v>
@@ -1146,10 +1155,10 @@
         <v>2000</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="19">
         <v>300000390</v>
@@ -1161,7 +1170,7 @@
         <v>1.3333299999999999</v>
       </c>
       <c r="P8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1170,31 +1179,31 @@
     </row>
     <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="7"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1207,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978BE3B7-6999-394E-BCC3-0F723C4AA6A2}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1223,7 +1232,7 @@
         <v>17</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1239,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1247,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1255,7 +1264,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1263,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1271,7 +1280,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1279,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1287,7 +1296,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1295,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1303,10 +1312,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1314,7 +1323,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1322,7 +1331,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1330,7 +1339,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1338,10 +1347,10 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,7 +1358,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,7 +1366,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,16 +1374,15 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" xr:uid="{DFD1F43A-9806-5943-9040-FC64A6EB2A47}"/>
-    <hyperlink ref="L12" r:id="rId2" xr:uid="{94520DE7-80FE-A547-AC15-D55BAC14F8E4}"/>
-    <hyperlink ref="F16" r:id="rId3" xr:uid="{8B844EF1-4643-F749-B31F-0D1145394109}"/>
+    <hyperlink ref="L12" r:id="rId1" xr:uid="{94520DE7-80FE-A547-AC15-D55BAC14F8E4}"/>
+    <hyperlink ref="F16" r:id="rId2" xr:uid="{8B844EF1-4643-F749-B31F-0D1145394109}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/LP-TSV_template.xlsx
+++ b/LP-TSV_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/karlg/Documents/Repos/linked-places/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E122C421-08FD-B348-B03F-94750E005BAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0423F-D475-A440-84F6-FE44E013EEFD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="17720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -326,7 +326,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -425,13 +425,6 @@
       <u/>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -562,7 +555,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -785,7 +778,7 @@
   </sheetPr>
   <dimension ref="A1:S1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5332,8 +5325,8 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5567,7 +5560,7 @@
     <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" display="WHG AAT types" xr:uid="{273F10F4-29CF-6F47-BA76-ADFE47673500}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{273F10F4-29CF-6F47-BA76-ADFE47673500}"/>
     <hyperlink ref="F7" r:id="rId2" xr:uid="{B4410A99-3813-A149-AA8A-25B91F691888}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
